--- a/biology/Zoologie/Crassostrea/Crassostrea.xlsx
+++ b/biology/Zoologie/Crassostrea/Crassostrea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crassostrea est un genre de mollusques bivalves comptant une vingtaine d'espèces communément dénommées « huîtres creuses » à l'instar de celles du genre Magallana, ces deux genres relevant de la sous-famille des Crassostreinae. Elles croissent fixées sur un substrat rocheux dans des eaux à faible taux de salinité et leurs larves sont zooplanctoniques.
 </t>
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes espèces d'huîtres vivent généralement continuellement immergées, supportant périodiquement, pour certaines espèces des eaux saumâtres.
 Leur corps est plutôt plat, protégé par des coquilles arrondies. 
-Coquilles : elles se distinguent de celles de la plupart des bivalves par un aspect très feuilleté, et par leur matière (elles sont constituées de calcite presque pure. C'est d'ailleurs une source de calcium bioassimilable qui a été utilisée par les éleveurs de volailles ou de bétail, ou l'industrie agroalimentaire, avec le risque d'ainsi importer certains métaux lourds, comme le plomb ou le cadmium, présents dans l'environnement de l'huître durant sa croissance, car ces espèces fixent particulièrement bien les métaux lourds (mieux que la plupart des autres coquillages) Les BCF (facteur de bioaccumulation[1]) du cadmium, zinc et cuivre sont beaucoup plus élevés pour une huître telle que Magallana gigas que pour des espèces benthiques comme les coques Cerastoderma edule et les palourdes Ruditapes philippinarum (Baudrimont et al., 2005)[2].). La coquille présente un peu d'argonite au point d'accroche du muscle (Comme les pétoncles, les huîtres ont un vrai muscle adducteur central, ce qui signifie que la coquille a une marque caractéristique centrale marquant son point d'attache).   
+Coquilles : elles se distinguent de celles de la plupart des bivalves par un aspect très feuilleté, et par leur matière (elles sont constituées de calcite presque pure. C'est d'ailleurs une source de calcium bioassimilable qui a été utilisée par les éleveurs de volailles ou de bétail, ou l'industrie agroalimentaire, avec le risque d'ainsi importer certains métaux lourds, comme le plomb ou le cadmium, présents dans l'environnement de l'huître durant sa croissance, car ces espèces fixent particulièrement bien les métaux lourds (mieux que la plupart des autres coquillages) Les BCF (facteur de bioaccumulation) du cadmium, zinc et cuivre sont beaucoup plus élevés pour une huître telle que Magallana gigas que pour des espèces benthiques comme les coques Cerastoderma edule et les palourdes Ruditapes philippinarum (Baudrimont et al., 2005).). La coquille présente un peu d'argonite au point d'accroche du muscle (Comme les pétoncles, les huîtres ont un vrai muscle adducteur central, ce qui signifie que la coquille a une marque caractéristique centrale marquant son point d'attache).   
 La coquille peut prendre des formes très irrégulières en épousant les formes du substrat ou d'autres huitres qui croissent au même endroit.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les huîtres sauvages du genre Crassostrea vivent généralement dans la zone intertidale, le sperme et les œufs diffusent dans la mer et la fécondation se fait dans l'eau, sauf chez quelques espèces dites larvipares. Deux modes différents de reproduction (ovipares et larvipares) existent en effet chez les Ostreidae. Dans les deux cas les huîtres sont hermaphrodites, mais les espèces larvipares montrent une alternance de sexe chez chaque individu, tandis que les espèces ovipares sont hermaphrodites simultanés, avec la production de gamètes mâles (spermatozoïdes), soit femelles (ovules) selon les circonstances.
 </t>
@@ -576,12 +592,11 @@
           <t>Identification, génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'identification des différentes espèces est généralement malaisée en raison d'une grande variabilité morphologique et de très importants transferts de populations : les espèces de Crassostrea font en effet presque toutes l'objet d'exploitations commerciales intenses, souvent depuis des époques reculées. Les apports récents de la phylogénie moléculaire permettent de faire peu à peu la lumière sur ces questions[3].
-Menaces (État, pressions, réponses...)
-Les espèces de Crassostrea sont soumises à de nombreux stress, dont une forte eutrophisation, l'apport en mer de pesticides, la pollution marine, et la surpêche qui ont affaibli localement les populations sauvages et leur diversité génétique.
-Des surmortalités, parfois très importantes sont régulièrement observées. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'identification des différentes espèces est généralement malaisée en raison d'une grande variabilité morphologique et de très importants transferts de populations : les espèces de Crassostrea font en effet presque toutes l'objet d'exploitations commerciales intenses, souvent depuis des époques reculées. Les apports récents de la phylogénie moléculaire permettent de faire peu à peu la lumière sur ces questions.
 </t>
         </is>
       </c>
@@ -607,10 +622,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Identification, génétique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Menaces (État, pressions, réponses...)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Crassostrea sont soumises à de nombreux stress, dont une forte eutrophisation, l'apport en mer de pesticides, la pollution marine, et la surpêche qui ont affaibli localement les populations sauvages et leur diversité génétique.
+Des surmortalités, parfois très importantes sont régulièrement observées. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crassostrea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crassostrea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture et consommation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Presque toutes les espèces de ce groupe sont comestibles, même si seulement une partie ont un réel intérêt culinaire, alimentaire et commercial, et font donc l'objet d'une culture à grande échelle. 
 			Assiette d'huîtres creuses (ou « japonaises » : Magallana gigas, ex-Crassostrea)
@@ -620,34 +675,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Crassostrea</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Crassostrea</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste de genres et espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre comportait jusqu'en 2017 la principale huître commerciale, Crassostrea gigas, renommée déplacée dans le genre Magallana sous le nom Magallana gigas[4]. 
-Voici la liste des espèces du genre Crassostrea selon World Register of Marine Species                               (13 janvier 2018)[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre comportait jusqu'en 2017 la principale huître commerciale, Crassostrea gigas, renommée déplacée dans le genre Magallana sous le nom Magallana gigas. 
+Voici la liste des espèces du genre Crassostrea selon World Register of Marine Species                               (13 janvier 2018) :
 Crassostrea aequatorialis (d'Orbigny, 1846)
 Crassostrea brasiliana (Lamarck, 1819) (syn C.brasiliensis)
 Crassostrea columbiensis (Hanley, 1846)
